--- a/01_kidsweb/home/kids2/report_tmp/納品書temple_市販_連絡書付.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/納品書temple_市販_連絡書付.xlsx
@@ -7,16 +7,56 @@
     <workbookView xWindow="330" yWindow="30" windowWidth="18210" windowHeight="7230" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="市販" sheetId="1" r:id="rId1"/>
+    <sheet name="納品書" sheetId="1" r:id="rId1"/>
     <sheet name="納品連絡書" sheetId="2" r:id="rId2"/>
     <sheet name="データ設定用" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">市販!$B$1:$N$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">納品書!$B$1:$N$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">納品連絡書!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>solcom-ad</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>この行にマスタデータをセット</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>この行から明細データをセット</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -956,7 +996,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1016,6 +1056,14 @@
       <sz val="14"/>
       <name val="ＭＳ Ｐ明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1192,6 +1240,9 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1199,9 +1250,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1554,10 +1602,10 @@
   <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="1.625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
@@ -1570,8 +1618,8 @@
     <col min="15" max="15" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="3:14" ht="26.65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:14" ht="70.150000000000006" customHeight="1"/>
+    <row r="3" spans="3:14" ht="26.65" customHeight="1">
       <c r="C3" s="3">
         <f>データ設定用!H3</f>
         <v>0</v>
@@ -1590,7 +1638,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="3:14" ht="60.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:14" ht="60.4" customHeight="1">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1604,7 +1652,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="3:14" ht="27.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:14" ht="27.4" customHeight="1">
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1614,62 +1662,62 @@
       <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
       <c r="N5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="42">
+    <row r="6" spans="3:14" ht="19.899999999999999" customHeight="1">
+      <c r="C6" s="39">
         <f>データ設定用!K6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="39">
         <f>データ設定用!O6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="39">
         <f>データ設定用!M6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="42" t="str">
+      <c r="F6" s="39" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R6/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R6/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G6" s="42" t="str">
+      <c r="G6" s="39" t="str">
         <f>IF(OR(MAX($F6:F7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H6" s="42" t="str">
+      <c r="H6" s="39" t="str">
         <f>IF(OR(MAX($F6:G7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I6" s="42" t="str">
+      <c r="I6" s="39" t="str">
         <f>IF(OR(MAX($F6:H7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J6" s="42" t="str">
+      <c r="J6" s="39" t="str">
         <f>IF(OR(MAX($F6:I7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K6" s="42" t="str">
+      <c r="K6" s="39" t="str">
         <f>IF(OR(MAX($F6:J7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L6" s="42" t="str">
+      <c r="L6" s="39" t="str">
         <f>IF(OR(MAX($F6:K7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="39">
         <f>MOD(データ設定用!$R6,10)</f>
         <v>0</v>
       </c>
@@ -1678,65 +1726,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
+    <row r="7" spans="3:14" ht="19.899999999999999" customHeight="1">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
       <c r="N7" s="31">
         <f>データ設定用!I6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="42">
+    <row r="8" spans="3:14" ht="19.899999999999999" customHeight="1">
+      <c r="C8" s="39">
         <f>データ設定用!K7</f>
         <v>0</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="39">
         <f>データ設定用!O7</f>
         <v>0</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="39">
         <f>データ設定用!M7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="42" t="str">
+      <c r="F8" s="39" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R7/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R7/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G8" s="42" t="str">
+      <c r="G8" s="39" t="str">
         <f>IF(OR(MAX($F8:F9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H8" s="42" t="str">
+      <c r="H8" s="39" t="str">
         <f>IF(OR(MAX($F8:G9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I8" s="42" t="str">
+      <c r="I8" s="39" t="str">
         <f>IF(OR(MAX($F8:H9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J8" s="42" t="str">
+      <c r="J8" s="39" t="str">
         <f>IF(OR(MAX($F8:I9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K8" s="42" t="str">
+      <c r="K8" s="39" t="str">
         <f>IF(OR(MAX($F8:J9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L8" s="42" t="str">
+      <c r="L8" s="39" t="str">
         <f>IF(OR(MAX($F8:K9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="39">
         <f>MOD(データ設定用!$R7,10)</f>
         <v>0</v>
       </c>
@@ -1745,65 +1793,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+    <row r="9" spans="3:14" ht="19.899999999999999" customHeight="1">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
       <c r="N9" s="31">
         <f>データ設定用!I7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="42">
+    <row r="10" spans="3:14" ht="19.899999999999999" customHeight="1">
+      <c r="C10" s="39">
         <f>データ設定用!K8</f>
         <v>0</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="39">
         <f>データ設定用!O8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="39">
         <f>データ設定用!M8</f>
         <v>0</v>
       </c>
-      <c r="F10" s="42" t="str">
+      <c r="F10" s="39" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R8/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R8/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G10" s="42" t="str">
+      <c r="G10" s="39" t="str">
         <f>IF(OR(MAX($F10:F11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H10" s="42" t="str">
+      <c r="H10" s="39" t="str">
         <f>IF(OR(MAX($F10:G11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I10" s="42" t="str">
+      <c r="I10" s="39" t="str">
         <f>IF(OR(MAX($F10:H11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J10" s="42" t="str">
+      <c r="J10" s="39" t="str">
         <f>IF(OR(MAX($F10:I11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K10" s="42" t="str">
+      <c r="K10" s="39" t="str">
         <f>IF(OR(MAX($F10:J11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L10" s="42" t="str">
+      <c r="L10" s="39" t="str">
         <f>IF(OR(MAX($F10:K11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M10" s="42">
+      <c r="M10" s="39">
         <f>MOD(データ設定用!$R8,10)</f>
         <v>0</v>
       </c>
@@ -1812,65 +1860,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+    <row r="11" spans="3:14" ht="19.899999999999999" customHeight="1">
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
       <c r="N11" s="31">
         <f>データ設定用!I8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="42">
+    <row r="12" spans="3:14" ht="19.899999999999999" customHeight="1">
+      <c r="C12" s="39">
         <f>データ設定用!K9</f>
         <v>0</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="39">
         <f>データ設定用!O9</f>
         <v>0</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="39">
         <f>データ設定用!M9</f>
         <v>0</v>
       </c>
-      <c r="F12" s="42" t="str">
+      <c r="F12" s="39" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R9/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R9/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G12" s="42" t="str">
+      <c r="G12" s="39" t="str">
         <f>IF(OR(MAX($F12:F13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H12" s="42" t="str">
+      <c r="H12" s="39" t="str">
         <f>IF(OR(MAX($F12:G13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I12" s="42" t="str">
+      <c r="I12" s="39" t="str">
         <f>IF(OR(MAX($F12:H13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J12" s="42" t="str">
+      <c r="J12" s="39" t="str">
         <f>IF(OR(MAX($F12:I13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K12" s="42" t="str">
+      <c r="K12" s="39" t="str">
         <f>IF(OR(MAX($F12:J13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L12" s="42" t="str">
+      <c r="L12" s="39" t="str">
         <f>IF(OR(MAX($F12:K13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="39">
         <f>MOD(データ設定用!$R9,10)</f>
         <v>0</v>
       </c>
@@ -1879,65 +1927,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+    <row r="13" spans="3:14" ht="19.899999999999999" customHeight="1">
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
       <c r="N13" s="31">
         <f>データ設定用!I9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="42">
+    <row r="14" spans="3:14" ht="19.899999999999999" customHeight="1">
+      <c r="C14" s="39">
         <f>データ設定用!K10</f>
         <v>0</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="39">
         <f>データ設定用!O10</f>
         <v>0</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="39">
         <f>データ設定用!M10</f>
         <v>0</v>
       </c>
-      <c r="F14" s="42" t="str">
+      <c r="F14" s="39" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R10/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R10/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G14" s="42" t="str">
+      <c r="G14" s="39" t="str">
         <f>IF(OR(MAX($F14:F15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H14" s="42" t="str">
+      <c r="H14" s="39" t="str">
         <f>IF(OR(MAX($F14:G15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I14" s="42" t="str">
+      <c r="I14" s="39" t="str">
         <f>IF(OR(MAX($F14:H15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J14" s="42" t="str">
+      <c r="J14" s="39" t="str">
         <f>IF(OR(MAX($F14:I15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K14" s="42" t="str">
+      <c r="K14" s="39" t="str">
         <f>IF(OR(MAX($F14:J15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L14" s="42" t="str">
+      <c r="L14" s="39" t="str">
         <f>IF(OR(MAX($F14:K15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M14" s="42">
+      <c r="M14" s="39">
         <f>MOD(データ設定用!$R10,10)</f>
         <v>0</v>
       </c>
@@ -1946,65 +1994,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+    <row r="15" spans="3:14" ht="19.899999999999999" customHeight="1">
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
       <c r="N15" s="31">
         <f>データ設定用!I10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="42">
+    <row r="16" spans="3:14" ht="19.899999999999999" customHeight="1">
+      <c r="C16" s="39">
         <f>データ設定用!K11</f>
         <v>0</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="39">
         <f>データ設定用!O11</f>
         <v>0</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="39">
         <f>データ設定用!M11</f>
         <v>0</v>
       </c>
-      <c r="F16" s="42" t="str">
+      <c r="F16" s="39" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R11/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R11/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G16" s="42" t="str">
+      <c r="G16" s="39" t="str">
         <f>IF(OR(MAX($F16:F17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H16" s="42" t="str">
+      <c r="H16" s="39" t="str">
         <f>IF(OR(MAX($F16:G17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I16" s="42" t="str">
+      <c r="I16" s="39" t="str">
         <f>IF(OR(MAX($F16:H17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J16" s="42" t="str">
+      <c r="J16" s="39" t="str">
         <f>IF(OR(MAX($F16:I17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K16" s="42" t="str">
+      <c r="K16" s="39" t="str">
         <f>IF(OR(MAX($F16:J17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L16" s="42" t="str">
+      <c r="L16" s="39" t="str">
         <f>IF(OR(MAX($F16:K17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="39">
         <f>MOD(データ設定用!$R11,10)</f>
         <v>0</v>
       </c>
@@ -2013,65 +2061,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+    <row r="17" spans="3:14" ht="19.899999999999999" customHeight="1">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
       <c r="N17" s="31">
         <f>データ設定用!I11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="42">
+    <row r="18" spans="3:14" ht="19.899999999999999" customHeight="1">
+      <c r="C18" s="39">
         <f>データ設定用!K12</f>
         <v>0</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="39">
         <f>データ設定用!O12</f>
         <v>0</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="39">
         <f>データ設定用!M12</f>
         <v>0</v>
       </c>
-      <c r="F18" s="42" t="str">
+      <c r="F18" s="39" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R12/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R12/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G18" s="42" t="str">
+      <c r="G18" s="39" t="str">
         <f>IF(OR(MAX($F18:F19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H18" s="42" t="str">
+      <c r="H18" s="39" t="str">
         <f>IF(OR(MAX($F18:G19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I18" s="42" t="str">
+      <c r="I18" s="39" t="str">
         <f>IF(OR(MAX($F18:H19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J18" s="42" t="str">
+      <c r="J18" s="39" t="str">
         <f>IF(OR(MAX($F18:I19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K18" s="42" t="str">
+      <c r="K18" s="39" t="str">
         <f>IF(OR(MAX($F18:J19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L18" s="42" t="str">
+      <c r="L18" s="39" t="str">
         <f>IF(OR(MAX($F18:K19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="39">
         <f>MOD(データ設定用!$R12,10)</f>
         <v>0</v>
       </c>
@@ -2080,24 +2128,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+    <row r="19" spans="3:14" ht="19.899999999999999" customHeight="1">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
       <c r="N19" s="31">
         <f>データ設定用!I12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:14" ht="39" customHeight="1">
       <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
@@ -2137,17 +2185,17 @@
       </c>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="3:14" ht="39.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:14" ht="39.4" customHeight="1">
       <c r="C21" s="37">
         <f>IF(データ設定用!AI3&lt;&gt;0,
 CONCATENATE("消費税(",データ設定用!AA3*100,"%)","　",TEXT(データ設定用!AI3,"0"),CHAR(10),データ設定用!AE3),
 データ設定用!AE3)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="41"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="38" t="str">
         <f>IF(MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000000,0),10) &gt; 0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000000,0),10),"")</f>
         <v/>
@@ -2182,17 +2230,17 @@
       </c>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="3:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:14" ht="18" customHeight="1">
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
+      <c r="J22" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
       <c r="N22" s="28">
         <f>データ設定用!D3</f>
         <v>0</v>
@@ -2200,24 +2248,52 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
@@ -2234,52 +2310,24 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -2296,7 +2344,7 @@
       <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -2309,7 +2357,7 @@
     <col min="10" max="10" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.4" customHeight="1">
       <c r="B2" s="43" t="str">
         <f>CONCATENATE(データ設定用!H3,"　",データ設定用!O3,"様")</f>
         <v>　様</v>
@@ -2317,7 +2365,7 @@
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
     </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="21">
       <c r="B3" s="43" t="str">
         <f>CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様")</f>
         <v>　様</v>
@@ -2328,7 +2376,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="9" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -2336,7 +2384,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="30.4" customHeight="1" thickBot="1">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="44" t="s">
@@ -2346,17 +2394,17 @@
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
     </row>
-    <row r="7" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="20.65" customHeight="1">
       <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="7.5" customHeight="1">
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="25.9" customHeight="1" thickBot="1">
       <c r="D9" s="12" t="s">
         <v>11</v>
       </c>
@@ -2366,7 +2414,7 @@
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
     </row>
-    <row r="10" spans="1:11" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="10.9" customHeight="1">
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -2374,7 +2422,7 @@
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="25.5" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="17" t="s">
         <v>12</v>
@@ -2403,7 +2451,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="33.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="33.4" customHeight="1">
       <c r="A12" s="16">
         <v>1</v>
       </c>
@@ -2440,7 +2488,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="33.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="33.4" customHeight="1">
       <c r="A13" s="16">
         <v>2</v>
       </c>
@@ -2477,7 +2525,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="33.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="33.4" customHeight="1">
       <c r="A14" s="16">
         <v>3</v>
       </c>
@@ -2514,7 +2562,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="33.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="33.4" customHeight="1">
       <c r="A15" s="16">
         <v>4</v>
       </c>
@@ -2551,7 +2599,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="33.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="33.4" customHeight="1">
       <c r="A16" s="16">
         <v>5</v>
       </c>
@@ -2588,7 +2636,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" ht="33.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="33.4" customHeight="1">
       <c r="A17" s="16">
         <v>6</v>
       </c>
@@ -2625,7 +2673,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="13.9" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -2638,7 +2686,7 @@
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="27" customHeight="1">
       <c r="G19" s="46" t="s">
         <v>20</v>
       </c>
@@ -2649,21 +2697,21 @@
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="15" customHeight="1">
       <c r="G20" s="25"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="15" customHeight="1">
       <c r="G21" s="25"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="15" customHeight="1">
       <c r="G22" s="25"/>
       <c r="H22" s="26" t="s">
         <v>24</v>
@@ -2687,14 +2735,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
@@ -2722,7 +2770,7 @@
     <col min="28" max="28" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36">
       <c r="A1" s="27"/>
       <c r="B1" t="s">
         <v>26</v>
@@ -2824,7 +2872,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36">
       <c r="B2" t="s">
         <v>46</v>
       </c>
@@ -2919,7 +2967,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36">
       <c r="A3" s="27" t="s">
         <v>66</v>
       </c>
@@ -2950,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -3006,7 +3054,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36">
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -3062,7 +3110,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36">
       <c r="A6" s="27" t="s">
         <v>98</v>
       </c>
@@ -3075,7 +3123,7 @@
       <c r="Q6" s="27"/>
       <c r="S6" s="27"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36">
       <c r="A7" s="27" t="s">
         <v>99</v>
       </c>
@@ -3088,7 +3136,7 @@
       <c r="Q7" s="27"/>
       <c r="S7" s="27"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36">
       <c r="A8" s="27" t="s">
         <v>100</v>
       </c>
@@ -3101,7 +3149,7 @@
       <c r="Q8" s="27"/>
       <c r="S8" s="27"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36">
       <c r="A9" s="27" t="s">
         <v>101</v>
       </c>
@@ -3114,7 +3162,7 @@
       <c r="Q9" s="27"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36">
       <c r="A10" s="27" t="s">
         <v>102</v>
       </c>
@@ -3127,7 +3175,7 @@
       <c r="Q10" s="27"/>
       <c r="S10" s="27"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:36">
       <c r="A11" s="27" t="s">
         <v>103</v>
       </c>
@@ -3140,7 +3188,7 @@
       <c r="Q11" s="27"/>
       <c r="S11" s="27"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:36">
       <c r="A12" s="27" t="s">
         <v>104</v>
       </c>
@@ -3156,5 +3204,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/01_kidsweb/home/kids2/report_tmp/納品書temple_市販_連絡書付.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/納品書temple_市販_連絡書付.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5605FA-D565-4E6D-937E-EC5A89EB4D7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="30" windowWidth="18210" windowHeight="7230" activeTab="2"/>
+    <workbookView xWindow="336" yWindow="36" windowWidth="18216" windowHeight="7236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="納品書" sheetId="1" r:id="rId1"/>
@@ -15,17 +21,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">納品書!$B$1:$N$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">納品連絡書!$A$1:$J$23</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>solcom-ad</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
   <si>
     <t>KWGNo:</t>
     <phoneticPr fontId="2"/>
@@ -987,12 +993,16 @@
   </si>
   <si>
     <t>strshippercode</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -1266,7 +1276,7 @@
   <cellStyles count="3">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1293,7 +1303,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1310,7 +1320,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1352,7 +1362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1385,9 +1395,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1420,6 +1447,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1595,33 +1639,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="42.875" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" customWidth="1"/>
     <col min="4" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="5.125" customWidth="1"/>
-    <col min="7" max="12" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" customWidth="1"/>
+    <col min="7" max="12" width="3.6640625" customWidth="1"/>
     <col min="13" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="23.5" customWidth="1"/>
-    <col min="15" max="15" width="3.5" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" customWidth="1"/>
+    <col min="15" max="15" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" ht="70.150000000000006" customHeight="1"/>
-    <row r="3" spans="3:14" ht="26.65" customHeight="1">
+    <row r="2" spans="3:14" ht="70.2" customHeight="1"/>
+    <row r="3" spans="3:14" ht="26.7" customHeight="1">
       <c r="C3" s="3">
-        <f>データ設定用!H3</f>
+        <f>データ設定用!G3</f>
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1638,7 +1682,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="3:14" ht="60.4" customHeight="1">
+    <row r="4" spans="3:14" ht="60.45" customHeight="1">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1652,7 +1696,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="3:14" ht="27.4" customHeight="1">
+    <row r="5" spans="3:14" ht="27.45" customHeight="1">
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1676,7 +1720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="19.899999999999999" customHeight="1">
+    <row r="6" spans="3:14" ht="19.95" customHeight="1">
       <c r="C6" s="39">
         <f>データ設定用!K6</f>
         <v>0</v>
@@ -1726,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:14" ht="19.899999999999999" customHeight="1">
+    <row r="7" spans="3:14" ht="19.95" customHeight="1">
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -1743,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:14" ht="19.899999999999999" customHeight="1">
+    <row r="8" spans="3:14" ht="19.95" customHeight="1">
       <c r="C8" s="39">
         <f>データ設定用!K7</f>
         <v>0</v>
@@ -1793,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="19.899999999999999" customHeight="1">
+    <row r="9" spans="3:14" ht="19.95" customHeight="1">
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
@@ -1810,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="19.899999999999999" customHeight="1">
+    <row r="10" spans="3:14" ht="19.95" customHeight="1">
       <c r="C10" s="39">
         <f>データ設定用!K8</f>
         <v>0</v>
@@ -1860,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="19.899999999999999" customHeight="1">
+    <row r="11" spans="3:14" ht="19.95" customHeight="1">
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
@@ -1877,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:14" ht="19.899999999999999" customHeight="1">
+    <row r="12" spans="3:14" ht="19.95" customHeight="1">
       <c r="C12" s="39">
         <f>データ設定用!K9</f>
         <v>0</v>
@@ -1927,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:14" ht="19.899999999999999" customHeight="1">
+    <row r="13" spans="3:14" ht="19.95" customHeight="1">
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
@@ -1944,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:14" ht="19.899999999999999" customHeight="1">
+    <row r="14" spans="3:14" ht="19.95" customHeight="1">
       <c r="C14" s="39">
         <f>データ設定用!K10</f>
         <v>0</v>
@@ -1994,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:14" ht="19.899999999999999" customHeight="1">
+    <row r="15" spans="3:14" ht="19.95" customHeight="1">
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
@@ -2011,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:14" ht="19.899999999999999" customHeight="1">
+    <row r="16" spans="3:14" ht="19.95" customHeight="1">
       <c r="C16" s="39">
         <f>データ設定用!K11</f>
         <v>0</v>
@@ -2061,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="19.899999999999999" customHeight="1">
+    <row r="17" spans="3:14" ht="19.95" customHeight="1">
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
@@ -2078,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="19.899999999999999" customHeight="1">
+    <row r="18" spans="3:14" ht="19.95" customHeight="1">
       <c r="C18" s="39">
         <f>データ設定用!K12</f>
         <v>0</v>
@@ -2128,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="19.899999999999999" customHeight="1">
+    <row r="19" spans="3:14" ht="19.95" customHeight="1">
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
@@ -2185,7 +2229,7 @@
       </c>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="3:14" ht="39.4" customHeight="1">
+    <row r="21" spans="3:14" ht="39.450000000000003" customHeight="1">
       <c r="C21" s="37">
         <f>IF(データ設定用!AI3&lt;&gt;0,
 CONCATENATE("消費税(",データ設定用!AA3*100,"%)","　",TEXT(データ設定用!AI3,"0"),CHAR(10),データ設定用!AE3),
@@ -2337,29 +2381,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="2.375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.4" customHeight="1">
+    <row r="2" spans="1:11" ht="15.45" customHeight="1">
       <c r="B2" s="43" t="str">
-        <f>CONCATENATE(データ設定用!H3,"　",データ設定用!O3,"様")</f>
+        <f>CONCATENATE(データ設定用!G3,"　",データ設定用!O3,"様")</f>
         <v>　様</v>
       </c>
       <c r="C2" s="43"/>
@@ -2384,7 +2428,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="30.4" customHeight="1" thickBot="1">
+    <row r="5" spans="1:11" ht="30.45" customHeight="1" thickBot="1">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="44" t="s">
@@ -2394,7 +2438,7 @@
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
     </row>
-    <row r="7" spans="1:11" ht="20.65" customHeight="1">
+    <row r="7" spans="1:11" ht="20.7" customHeight="1">
       <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
@@ -2404,7 +2448,7 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="25.9" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="25.95" customHeight="1" thickBot="1">
       <c r="D9" s="12" t="s">
         <v>11</v>
       </c>
@@ -2414,7 +2458,7 @@
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
     </row>
-    <row r="10" spans="1:11" ht="10.9" customHeight="1">
+    <row r="10" spans="1:11" ht="10.95" customHeight="1">
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -2451,7 +2495,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="33.4" customHeight="1">
+    <row r="12" spans="1:11" ht="33.450000000000003" customHeight="1">
       <c r="A12" s="16">
         <v>1</v>
       </c>
@@ -2488,7 +2532,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="33.4" customHeight="1">
+    <row r="13" spans="1:11" ht="33.450000000000003" customHeight="1">
       <c r="A13" s="16">
         <v>2</v>
       </c>
@@ -2525,7 +2569,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="33.4" customHeight="1">
+    <row r="14" spans="1:11" ht="33.450000000000003" customHeight="1">
       <c r="A14" s="16">
         <v>3</v>
       </c>
@@ -2562,7 +2606,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="33.4" customHeight="1">
+    <row r="15" spans="1:11" ht="33.450000000000003" customHeight="1">
       <c r="A15" s="16">
         <v>4</v>
       </c>
@@ -2599,7 +2643,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="33.4" customHeight="1">
+    <row r="16" spans="1:11" ht="33.450000000000003" customHeight="1">
       <c r="A16" s="16">
         <v>5</v>
       </c>
@@ -2636,7 +2680,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" ht="33.4" customHeight="1">
+    <row r="17" spans="1:11" ht="33.450000000000003" customHeight="1">
       <c r="A17" s="16">
         <v>6</v>
       </c>
@@ -2673,7 +2717,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" ht="13.9" customHeight="1">
+    <row r="18" spans="1:11" ht="13.95" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -2735,39 +2779,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -2972,8 +3016,10 @@
         <v>66</v>
       </c>
       <c r="D3" s="28"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32" t="s">
+        <v>129</v>
+      </c>
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>

--- a/01_kidsweb/home/kids2/report_tmp/納品書temple_市販_連絡書付.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/納品書temple_市販_連絡書付.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5605FA-D565-4E6D-937E-EC5A89EB4D7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77C0FE0-EFE0-46BA-B1D8-E929CDAE2A67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="336" yWindow="36" windowWidth="18216" windowHeight="7236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="19416" windowHeight="15132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="納品書" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">納品連絡書!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1184,14 +1192,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1247,11 +1252,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1270,6 +1281,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1646,7 +1660,7 @@
   <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:L7"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1671,39 +1685,39 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="3:14" ht="60.45" customHeight="1">
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="3:14" ht="27.45" customHeight="1">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="39" t="s">
@@ -1716,7 +1730,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1725,64 +1739,64 @@
         <f>データ設定用!K6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="40">
         <f>データ設定用!O6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="40">
         <f>データ設定用!M6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="39" t="str">
+      <c r="F6" s="40" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R6/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R6/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G6" s="39" t="str">
+      <c r="G6" s="40" t="str">
         <f>IF(OR(MAX($F6:F7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H6" s="39" t="str">
+      <c r="H6" s="40" t="str">
         <f>IF(OR(MAX($F6:G7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I6" s="39" t="str">
+      <c r="I6" s="40" t="str">
         <f>IF(OR(MAX($F6:H7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J6" s="39" t="str">
+      <c r="J6" s="40" t="str">
         <f>IF(OR(MAX($F6:I7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K6" s="39" t="str">
+      <c r="K6" s="40" t="str">
         <f>IF(OR(MAX($F6:J7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L6" s="39" t="str">
+      <c r="L6" s="40" t="str">
         <f>IF(OR(MAX($F6:K7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="40">
         <f>MOD(データ設定用!$R6,10)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <f>データ設定用!S6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:14" ht="19.95" customHeight="1">
       <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="31">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="30">
         <f>データ設定用!I6</f>
         <v>0</v>
       </c>
@@ -1792,64 +1806,64 @@
         <f>データ設定用!K7</f>
         <v>0</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="40">
         <f>データ設定用!O7</f>
         <v>0</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="40">
         <f>データ設定用!M7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="39" t="str">
+      <c r="F8" s="40" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R7/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R7/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G8" s="39" t="str">
+      <c r="G8" s="40" t="str">
         <f>IF(OR(MAX($F8:F9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H8" s="39" t="str">
+      <c r="H8" s="40" t="str">
         <f>IF(OR(MAX($F8:G9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I8" s="39" t="str">
+      <c r="I8" s="40" t="str">
         <f>IF(OR(MAX($F8:H9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J8" s="39" t="str">
+      <c r="J8" s="40" t="str">
         <f>IF(OR(MAX($F8:I9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K8" s="39" t="str">
+      <c r="K8" s="40" t="str">
         <f>IF(OR(MAX($F8:J9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L8" s="39" t="str">
+      <c r="L8" s="40" t="str">
         <f>IF(OR(MAX($F8:K9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="40">
         <f>MOD(データ設定用!$R7,10)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <f>データ設定用!S7</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="19.95" customHeight="1">
       <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="31">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="30">
         <f>データ設定用!I7</f>
         <v>0</v>
       </c>
@@ -1859,64 +1873,64 @@
         <f>データ設定用!K8</f>
         <v>0</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="40">
         <f>データ設定用!O8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="40">
         <f>データ設定用!M8</f>
         <v>0</v>
       </c>
-      <c r="F10" s="39" t="str">
+      <c r="F10" s="40" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R8/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R8/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G10" s="39" t="str">
+      <c r="G10" s="40" t="str">
         <f>IF(OR(MAX($F10:F11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H10" s="39" t="str">
+      <c r="H10" s="40" t="str">
         <f>IF(OR(MAX($F10:G11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I10" s="39" t="str">
+      <c r="I10" s="40" t="str">
         <f>IF(OR(MAX($F10:H11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J10" s="39" t="str">
+      <c r="J10" s="40" t="str">
         <f>IF(OR(MAX($F10:I11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K10" s="39" t="str">
+      <c r="K10" s="40" t="str">
         <f>IF(OR(MAX($F10:J11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L10" s="39" t="str">
+      <c r="L10" s="40" t="str">
         <f>IF(OR(MAX($F10:K11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="40">
         <f>MOD(データ設定用!$R8,10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <f>データ設定用!S8</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="19.95" customHeight="1">
       <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="31">
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="30">
         <f>データ設定用!I8</f>
         <v>0</v>
       </c>
@@ -1926,64 +1940,64 @@
         <f>データ設定用!K9</f>
         <v>0</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="40">
         <f>データ設定用!O9</f>
         <v>0</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="40">
         <f>データ設定用!M9</f>
         <v>0</v>
       </c>
-      <c r="F12" s="39" t="str">
+      <c r="F12" s="40" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R9/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R9/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G12" s="39" t="str">
+      <c r="G12" s="40" t="str">
         <f>IF(OR(MAX($F12:F13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H12" s="39" t="str">
+      <c r="H12" s="40" t="str">
         <f>IF(OR(MAX($F12:G13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I12" s="39" t="str">
+      <c r="I12" s="40" t="str">
         <f>IF(OR(MAX($F12:H13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J12" s="39" t="str">
+      <c r="J12" s="40" t="str">
         <f>IF(OR(MAX($F12:I13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K12" s="39" t="str">
+      <c r="K12" s="40" t="str">
         <f>IF(OR(MAX($F12:J13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L12" s="39" t="str">
+      <c r="L12" s="40" t="str">
         <f>IF(OR(MAX($F12:K13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="40">
         <f>MOD(データ設定用!$R9,10)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <f>データ設定用!S9</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="19.95" customHeight="1">
       <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="31">
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="30">
         <f>データ設定用!I9</f>
         <v>0</v>
       </c>
@@ -1993,64 +2007,64 @@
         <f>データ設定用!K10</f>
         <v>0</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="40">
         <f>データ設定用!O10</f>
         <v>0</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="40">
         <f>データ設定用!M10</f>
         <v>0</v>
       </c>
-      <c r="F14" s="39" t="str">
+      <c r="F14" s="40" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R10/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R10/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G14" s="39" t="str">
+      <c r="G14" s="40" t="str">
         <f>IF(OR(MAX($F14:F15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H14" s="39" t="str">
+      <c r="H14" s="40" t="str">
         <f>IF(OR(MAX($F14:G15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I14" s="39" t="str">
+      <c r="I14" s="40" t="str">
         <f>IF(OR(MAX($F14:H15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J14" s="39" t="str">
+      <c r="J14" s="40" t="str">
         <f>IF(OR(MAX($F14:I15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K14" s="39" t="str">
+      <c r="K14" s="40" t="str">
         <f>IF(OR(MAX($F14:J15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L14" s="39" t="str">
+      <c r="L14" s="40" t="str">
         <f>IF(OR(MAX($F14:K15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="40">
         <f>MOD(データ設定用!$R10,10)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <f>データ設定用!S10</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="19.95" customHeight="1">
       <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="31">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="30">
         <f>データ設定用!I10</f>
         <v>0</v>
       </c>
@@ -2060,64 +2074,64 @@
         <f>データ設定用!K11</f>
         <v>0</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="40">
         <f>データ設定用!O11</f>
         <v>0</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="40">
         <f>データ設定用!M11</f>
         <v>0</v>
       </c>
-      <c r="F16" s="39" t="str">
+      <c r="F16" s="40" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R11/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R11/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G16" s="39" t="str">
+      <c r="G16" s="40" t="str">
         <f>IF(OR(MAX($F16:F17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H16" s="39" t="str">
+      <c r="H16" s="40" t="str">
         <f>IF(OR(MAX($F16:G17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I16" s="39" t="str">
+      <c r="I16" s="40" t="str">
         <f>IF(OR(MAX($F16:H17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J16" s="39" t="str">
+      <c r="J16" s="40" t="str">
         <f>IF(OR(MAX($F16:I17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K16" s="39" t="str">
+      <c r="K16" s="40" t="str">
         <f>IF(OR(MAX($F16:J17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L16" s="39" t="str">
+      <c r="L16" s="40" t="str">
         <f>IF(OR(MAX($F16:K17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="40">
         <f>MOD(データ設定用!$R11,10)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <f>データ設定用!S11</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="19.95" customHeight="1">
       <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="31">
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="30">
         <f>データ設定用!I11</f>
         <v>0</v>
       </c>
@@ -2127,148 +2141,148 @@
         <f>データ設定用!K12</f>
         <v>0</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="40">
         <f>データ設定用!O12</f>
         <v>0</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="40">
         <f>データ設定用!M12</f>
         <v>0</v>
       </c>
-      <c r="F18" s="39" t="str">
+      <c r="F18" s="40" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R12/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R12/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G18" s="39" t="str">
+      <c r="G18" s="40" t="str">
         <f>IF(OR(MAX($F18:F19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H18" s="39" t="str">
+      <c r="H18" s="40" t="str">
         <f>IF(OR(MAX($F18:G19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I18" s="39" t="str">
+      <c r="I18" s="40" t="str">
         <f>IF(OR(MAX($F18:H19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J18" s="39" t="str">
+      <c r="J18" s="40" t="str">
         <f>IF(OR(MAX($F18:I19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K18" s="39" t="str">
+      <c r="K18" s="40" t="str">
         <f>IF(OR(MAX($F18:J19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L18" s="39" t="str">
+      <c r="L18" s="40" t="str">
         <f>IF(OR(MAX($F18:K19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M18" s="39">
+      <c r="M18" s="40">
         <f>MOD(データ設定用!$R12,10)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <f>データ設定用!S12</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="19.95" customHeight="1">
       <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="31">
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="30">
         <f>データ設定用!I12</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="39" customHeight="1">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="38" t="str">
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="48" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$V$3/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$V$3/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G20" s="38" t="str">
+      <c r="G20" s="48" t="str">
         <f>IF(OR(MAX(F20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H20" s="38" t="str">
+      <c r="H20" s="48" t="str">
         <f>IF(OR(MAX(F20:G20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I20" s="38" t="str">
+      <c r="I20" s="48" t="str">
         <f>IF(OR(MAX(F20:H20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J20" s="38" t="str">
+      <c r="J20" s="48" t="str">
         <f>IF(OR(MAX(F20:I20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K20" s="38" t="str">
+      <c r="K20" s="48" t="str">
         <f>IF(OR(MAX(F20:J20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L20" s="38" t="str">
+      <c r="L20" s="48" t="str">
         <f>IF(OR(MAX(F20:K20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="48">
         <f>MOD(データ設定用!V$3,10)</f>
         <v>0</v>
       </c>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="3:14" ht="39.450000000000003" customHeight="1">
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <f>IF(データ設定用!AI3&lt;&gt;0,
 CONCATENATE("消費税(",データ設定用!AA3*100,"%)","　",TEXT(データ設定用!AI3,"0"),CHAR(10),データ設定用!AE3),
 データ設定用!AE3)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="38" t="str">
+      <c r="E21" s="43"/>
+      <c r="F21" s="48" t="str">
         <f>IF(MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000000,0),10) &gt; 0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G21" s="38" t="str">
+      <c r="G21" s="48" t="str">
         <f>IF(OR(MAX(F21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H21" s="38" t="str">
+      <c r="H21" s="48" t="str">
         <f>IF(OR(MAX(F21:G21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I21" s="38" t="str">
+      <c r="I21" s="48" t="str">
         <f>IF(OR(MAX(F21:H21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J21" s="38" t="str">
+      <c r="J21" s="48" t="str">
         <f>IF(OR(MAX(F21:I21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K21" s="38" t="str">
+      <c r="K21" s="48" t="str">
         <f>IF(OR(MAX(F21:J21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L21" s="38" t="str">
+      <c r="L21" s="48" t="str">
         <f>IF(OR(MAX(F21:K21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M21" s="38">
+      <c r="M21" s="48">
         <f>MOD((データ設定用!$V$3+データ設定用!$AI$3),10)</f>
         <v>0</v>
       </c>
@@ -2279,13 +2293,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="28">
+      <c r="J22" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="27">
         <f>データ設定用!D3</f>
         <v>0</v>
       </c>
@@ -2402,365 +2416,365 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.45" customHeight="1">
-      <c r="B2" s="43" t="str">
+      <c r="B2" s="44" t="str">
         <f>CONCATENATE(データ設定用!G3,"　",データ設定用!O3,"様")</f>
         <v>　様</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="B3" s="43" t="str">
+      <c r="B3" s="44" t="str">
         <f>CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様")</f>
         <v>　様</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="9" customHeight="1">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="30.45" customHeight="1" thickBot="1">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="44" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="7" spans="1:11" ht="20.7" customHeight="1">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:11" ht="7.5" customHeight="1">
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="25.95" customHeight="1" thickBot="1">
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="46">
         <v>43712</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:11" ht="10.95" customHeight="1">
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="15"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>1</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <f>データ設定用!E6</f>
         <v>0</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <f>データ設定用!H6</f>
         <v>0</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <f>データ設定用!K6</f>
         <v>0</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <f>データ設定用!O6</f>
         <v>0</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <f>データ設定用!Q6</f>
         <v>0</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="34" t="str">
+      <c r="G12" s="20"/>
+      <c r="H12" s="33" t="str">
         <f>CONCATENATE(データ設定用!S6,CHAR(10),データ設定用!$Z$3)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="21">
         <f>データ設定用!$R$3</f>
         <v>0</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="15"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>2</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <f>データ設定用!E7</f>
         <v>0</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <f>データ設定用!H7</f>
         <v>0</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <f>データ設定用!K7</f>
         <v>0</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <f>データ設定用!O7</f>
         <v>0</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <f>データ設定用!Q7</f>
         <v>0</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="34" t="str">
+      <c r="G13" s="20"/>
+      <c r="H13" s="33" t="str">
         <f>CONCATENATE(データ設定用!S7,CHAR(10),データ設定用!$Z$3)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="21">
         <f>データ設定用!$R$3</f>
         <v>0</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="15"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>3</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <f>データ設定用!E8</f>
         <v>0</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <f>データ設定用!H8</f>
         <v>0</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <f>データ設定用!K8</f>
         <v>0</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <f>データ設定用!O8</f>
         <v>0</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <f>データ設定用!Q8</f>
         <v>0</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="34" t="str">
+      <c r="G14" s="20"/>
+      <c r="H14" s="33" t="str">
         <f>CONCATENATE(データ設定用!S8,CHAR(10),データ設定用!$Z$3)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="21">
         <f>データ設定用!$R$3</f>
         <v>0</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="15"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>4</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <f>データ設定用!E9</f>
         <v>0</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <f>データ設定用!H9</f>
         <v>0</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <f>データ設定用!K9</f>
         <v>0</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <f>データ設定用!O9</f>
         <v>0</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <f>データ設定用!Q9</f>
         <v>0</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="34" t="str">
+      <c r="G15" s="20"/>
+      <c r="H15" s="33" t="str">
         <f>CONCATENATE(データ設定用!S9,CHAR(10),データ設定用!$Z$3)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="21">
         <f>データ設定用!$R$3</f>
         <v>0</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="15"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>5</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <f>データ設定用!E10</f>
         <v>0</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <f>データ設定用!H10</f>
         <v>0</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <f>データ設定用!K10</f>
         <v>0</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <f>データ設定用!O10</f>
         <v>0</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <f>データ設定用!Q10</f>
         <v>0</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="34" t="str">
+      <c r="G16" s="20"/>
+      <c r="H16" s="33" t="str">
         <f>CONCATENATE(データ設定用!S10,CHAR(10),データ設定用!$Z$3)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="21">
         <f>データ設定用!$R$3</f>
         <v>0</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="15"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>6</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <f>データ設定用!E11</f>
         <v>0</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <f>データ設定用!H11</f>
         <v>0</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <f>データ設定用!K11</f>
         <v>0</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <f>データ設定用!O11</f>
         <v>0</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <f>データ設定用!Q11</f>
         <v>0</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="34" t="str">
+      <c r="G17" s="20"/>
+      <c r="H17" s="33" t="str">
         <f>CONCATENATE(データ設定用!S11,CHAR(10),データ設定用!$Z$3)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="21">
         <f>データ設定用!$R$3</f>
         <v>0</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="15"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" ht="13.95" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" ht="27" customHeight="1">
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="24" t="s">
+      <c r="H19" s="47"/>
+      <c r="I19" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="24" t="s">
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="24" t="s">
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="G22" s="25"/>
-      <c r="H22" s="26" t="s">
+      <c r="G22" s="24"/>
+      <c r="H22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="23" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2815,7 +2829,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
-      <c r="A1" s="27"/>
+      <c r="A1" s="26"/>
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -2837,22 +2851,22 @@
       <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="34" t="s">
         <v>116</v>
       </c>
       <c r="O1" t="s">
@@ -2906,7 +2920,7 @@
       <c r="AE1" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="35" t="s">
+      <c r="AF1" s="34" t="s">
         <v>127</v>
       </c>
       <c r="AI1" t="s">
@@ -2938,22 +2952,22 @@
       <c r="H2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="34" t="s">
         <v>118</v>
       </c>
       <c r="O2" t="s">
@@ -3007,34 +3021,34 @@
       <c r="AE2" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" s="35" t="s">
+      <c r="AF2" s="34" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:36">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32" t="s">
+      <c r="D3" s="27"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="29"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="30"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="28"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="29"/>
       <c r="AI3">
         <f>ROUNDDOWN(IF(Y3&lt;&gt;1,0,IF(Y3=1,V3*AA3,V3/(1+AA3)*AA3)),0)</f>
         <v>0</v>
@@ -3157,95 +3171,95 @@
       </c>
     </row>
     <row r="6" spans="1:36">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="S6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="S6" s="26"/>
     </row>
     <row r="7" spans="1:36">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="S7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="S7" s="26"/>
     </row>
     <row r="8" spans="1:36">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="S8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="S8" s="26"/>
     </row>
     <row r="9" spans="1:36">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="S9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="S9" s="26"/>
     </row>
     <row r="10" spans="1:36">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="S10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="S10" s="26"/>
     </row>
     <row r="11" spans="1:36">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="S11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="S11" s="26"/>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="S12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="S12" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/01_kidsweb/home/kids2/report_tmp/納品書temple_市販_連絡書付.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/納品書temple_市販_連絡書付.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77C0FE0-EFE0-46BA-B1D8-E929CDAE2A67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204EDFA5-16C9-4F9E-B660-50A1A73726CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28692" yWindow="-108" windowWidth="19416" windowHeight="15132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,14 +22,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">納品連絡書!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1227,8 +1219,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1241,12 +1231,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1258,10 +1243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1271,6 +1253,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1283,9 +1271,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -1660,7 +1652,7 @@
   <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1735,554 +1727,554 @@
       </c>
     </row>
     <row r="6" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C6" s="39">
-        <f>データ設定用!K6</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="40">
-        <f>データ設定用!O6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="40">
-        <f>データ設定用!M6</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="40" t="str">
+      <c r="C6" s="39" t="str">
+        <f>IF(LEN(データ設定用!K6)&gt;0,データ設定用!K6,"")</f>
+        <v/>
+      </c>
+      <c r="D6" s="38" t="str">
+        <f>IF(LEN(データ設定用!O6)&gt;0,データ設定用!O6,"")</f>
+        <v/>
+      </c>
+      <c r="E6" s="38" t="str">
+        <f>IF(LEN(データ設定用!M6)&gt;0,データ設定用!M6,"")</f>
+        <v/>
+      </c>
+      <c r="F6" s="38" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R6/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R6/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G6" s="40" t="str">
+      <c r="G6" s="38" t="str">
         <f>IF(OR(MAX($F6:F7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H6" s="40" t="str">
+      <c r="H6" s="38" t="str">
         <f>IF(OR(MAX($F6:G7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I6" s="40" t="str">
+      <c r="I6" s="38" t="str">
         <f>IF(OR(MAX($F6:H7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J6" s="40" t="str">
+      <c r="J6" s="38" t="str">
         <f>IF(OR(MAX($F6:I7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K6" s="40" t="str">
+      <c r="K6" s="38" t="str">
         <f>IF(OR(MAX($F6:J7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L6" s="40" t="str">
+      <c r="L6" s="38" t="str">
         <f>IF(OR(MAX($F6:K7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M6" s="40">
-        <f>MOD(データ設定用!$R6,10)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <f>データ設定用!S6</f>
-        <v>0</v>
+      <c r="M6" s="38" t="str">
+        <f>IF(LEN(データ設定用!$R6)&gt;0,MOD(データ設定用!$R6,10),"")</f>
+        <v/>
+      </c>
+      <c r="N6" s="6" t="str">
+        <f>IF(LEN(データ設定用!S6)&gt;0,データ設定用!S6,"")</f>
+        <v/>
       </c>
     </row>
     <row r="7" spans="3:14" ht="19.95" customHeight="1">
       <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="30">
-        <f>データ設定用!I6</f>
-        <v>0</v>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="44" t="str">
+        <f>IF(LEN(データ設定用!I6)&gt;0,データ設定用!I6,"")</f>
+        <v/>
       </c>
     </row>
     <row r="8" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C8" s="39">
-        <f>データ設定用!K7</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="40">
-        <f>データ設定用!O7</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="40">
-        <f>データ設定用!M7</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="40" t="str">
+      <c r="C8" s="39" t="str">
+        <f>IF(LEN(データ設定用!K8)&gt;0,データ設定用!K8,"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="38" t="str">
+        <f>IF(LEN(データ設定用!O8)&gt;0,データ設定用!O8,"")</f>
+        <v/>
+      </c>
+      <c r="E8" s="38" t="str">
+        <f>IF(LEN(データ設定用!M8)&gt;0,データ設定用!M8,"")</f>
+        <v/>
+      </c>
+      <c r="F8" s="38" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R7/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R7/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G8" s="40" t="str">
+      <c r="G8" s="38" t="str">
         <f>IF(OR(MAX($F8:F9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H8" s="40" t="str">
+      <c r="H8" s="38" t="str">
         <f>IF(OR(MAX($F8:G9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I8" s="40" t="str">
+      <c r="I8" s="38" t="str">
         <f>IF(OR(MAX($F8:H9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J8" s="40" t="str">
+      <c r="J8" s="38" t="str">
         <f>IF(OR(MAX($F8:I9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K8" s="40" t="str">
+      <c r="K8" s="38" t="str">
         <f>IF(OR(MAX($F8:J9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L8" s="40" t="str">
+      <c r="L8" s="38" t="str">
         <f>IF(OR(MAX($F8:K9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M8" s="40">
-        <f>MOD(データ設定用!$R7,10)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
-        <f>データ設定用!S7</f>
-        <v>0</v>
+      <c r="M8" s="38" t="str">
+        <f>IF(LEN(データ設定用!$R7)&gt;0,MOD(データ設定用!$R7,10),"")</f>
+        <v/>
+      </c>
+      <c r="N8" s="6" t="str">
+        <f>IF(LEN(データ設定用!S7)&gt;0,データ設定用!S7,"")</f>
+        <v/>
       </c>
     </row>
     <row r="9" spans="3:14" ht="19.95" customHeight="1">
       <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="30">
-        <f>データ設定用!I7</f>
-        <v>0</v>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="44" t="str">
+        <f>IF(LEN(データ設定用!I7)&gt;0,データ設定用!I7,"")</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C10" s="39">
-        <f>データ設定用!K8</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="40">
-        <f>データ設定用!O8</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="40">
-        <f>データ設定用!M8</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="40" t="str">
+      <c r="C10" s="39" t="str">
+        <f>IF(LEN(データ設定用!K10)&gt;0,データ設定用!K10,"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="38" t="str">
+        <f>IF(LEN(データ設定用!O10)&gt;0,データ設定用!O10,"")</f>
+        <v/>
+      </c>
+      <c r="E10" s="38" t="str">
+        <f>IF(LEN(データ設定用!M10)&gt;0,データ設定用!M10,"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="38" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R8/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R8/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G10" s="40" t="str">
+      <c r="G10" s="38" t="str">
         <f>IF(OR(MAX($F10:F11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H10" s="40" t="str">
+      <c r="H10" s="38" t="str">
         <f>IF(OR(MAX($F10:G11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I10" s="40" t="str">
+      <c r="I10" s="38" t="str">
         <f>IF(OR(MAX($F10:H11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J10" s="40" t="str">
+      <c r="J10" s="38" t="str">
         <f>IF(OR(MAX($F10:I11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K10" s="40" t="str">
+      <c r="K10" s="38" t="str">
         <f>IF(OR(MAX($F10:J11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L10" s="40" t="str">
+      <c r="L10" s="38" t="str">
         <f>IF(OR(MAX($F10:K11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M10" s="40">
-        <f>MOD(データ設定用!$R8,10)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <f>データ設定用!S8</f>
-        <v>0</v>
+      <c r="M10" s="38" t="str">
+        <f>IF(LEN(データ設定用!$R8)&gt;0,MOD(データ設定用!$R8,10),"")</f>
+        <v/>
+      </c>
+      <c r="N10" s="44" t="str">
+        <f>IF(LEN(データ設定用!S8)&gt;0,データ設定用!S8,"")</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="3:14" ht="19.95" customHeight="1">
       <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="30">
-        <f>データ設定用!I8</f>
-        <v>0</v>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="44" t="str">
+        <f>IF(LEN(データ設定用!I8)&gt;0,データ設定用!I8,"")</f>
+        <v/>
       </c>
     </row>
     <row r="12" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C12" s="39">
-        <f>データ設定用!K9</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="40">
-        <f>データ設定用!O9</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="40">
-        <f>データ設定用!M9</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="40" t="str">
+      <c r="C12" s="39" t="str">
+        <f>IF(LEN(データ設定用!K12)&gt;0,データ設定用!K12,"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="38" t="str">
+        <f>IF(LEN(データ設定用!O12)&gt;0,データ設定用!O12,"")</f>
+        <v/>
+      </c>
+      <c r="E12" s="38" t="str">
+        <f>IF(LEN(データ設定用!M12)&gt;0,データ設定用!M12,"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="38" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R9/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R9/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G12" s="40" t="str">
+      <c r="G12" s="38" t="str">
         <f>IF(OR(MAX($F12:F13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H12" s="40" t="str">
+      <c r="H12" s="38" t="str">
         <f>IF(OR(MAX($F12:G13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I12" s="40" t="str">
+      <c r="I12" s="38" t="str">
         <f>IF(OR(MAX($F12:H13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J12" s="40" t="str">
+      <c r="J12" s="38" t="str">
         <f>IF(OR(MAX($F12:I13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K12" s="40" t="str">
+      <c r="K12" s="38" t="str">
         <f>IF(OR(MAX($F12:J13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L12" s="40" t="str">
+      <c r="L12" s="38" t="str">
         <f>IF(OR(MAX($F12:K13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M12" s="40">
-        <f>MOD(データ設定用!$R9,10)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <f>データ設定用!S9</f>
-        <v>0</v>
+      <c r="M12" s="38" t="str">
+        <f>IF(LEN(データ設定用!$R9)&gt;0,MOD(データ設定用!$R9,10),"")</f>
+        <v/>
+      </c>
+      <c r="N12" s="44" t="str">
+        <f>IF(LEN(データ設定用!S9)&gt;0,データ設定用!S9,"")</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="3:14" ht="19.95" customHeight="1">
       <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="30">
-        <f>データ設定用!I9</f>
-        <v>0</v>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="44" t="str">
+        <f>IF(LEN(データ設定用!I9)&gt;0,データ設定用!I9,"")</f>
+        <v/>
       </c>
     </row>
     <row r="14" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C14" s="39">
-        <f>データ設定用!K10</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="40">
-        <f>データ設定用!O10</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="40">
-        <f>データ設定用!M10</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="40" t="str">
+      <c r="C14" s="39" t="str">
+        <f>IF(LEN(データ設定用!K14)&gt;0,データ設定用!K14,"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="38" t="str">
+        <f>IF(LEN(データ設定用!O14)&gt;0,データ設定用!O14,"")</f>
+        <v/>
+      </c>
+      <c r="E14" s="38" t="str">
+        <f>IF(LEN(データ設定用!M14)&gt;0,データ設定用!M14,"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="38" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R10/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R10/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G14" s="40" t="str">
+      <c r="G14" s="38" t="str">
         <f>IF(OR(MAX($F14:F15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H14" s="40" t="str">
+      <c r="H14" s="38" t="str">
         <f>IF(OR(MAX($F14:G15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I14" s="40" t="str">
+      <c r="I14" s="38" t="str">
         <f>IF(OR(MAX($F14:H15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J14" s="40" t="str">
+      <c r="J14" s="38" t="str">
         <f>IF(OR(MAX($F14:I15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K14" s="40" t="str">
+      <c r="K14" s="38" t="str">
         <f>IF(OR(MAX($F14:J15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L14" s="40" t="str">
+      <c r="L14" s="38" t="str">
         <f>IF(OR(MAX($F14:K15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M14" s="40">
-        <f>MOD(データ設定用!$R10,10)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <f>データ設定用!S10</f>
-        <v>0</v>
+      <c r="M14" s="38" t="str">
+        <f>IF(LEN(データ設定用!$R10)&gt;0,MOD(データ設定用!$R1,10),"")</f>
+        <v/>
+      </c>
+      <c r="N14" s="44" t="str">
+        <f>IF(LEN(データ設定用!S10)&gt;0,データ設定用!S10,"")</f>
+        <v/>
       </c>
     </row>
     <row r="15" spans="3:14" ht="19.95" customHeight="1">
       <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="30">
-        <f>データ設定用!I10</f>
-        <v>0</v>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="44" t="str">
+        <f>IF(LEN(データ設定用!I10)&gt;0,データ設定用!I10,"")</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C16" s="39">
-        <f>データ設定用!K11</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="40">
-        <f>データ設定用!O11</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="40">
-        <f>データ設定用!M11</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="40" t="str">
+      <c r="C16" s="39" t="str">
+        <f>IF(LEN(データ設定用!K16)&gt;0,データ設定用!K16,"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="38" t="str">
+        <f>IF(LEN(データ設定用!O16)&gt;0,データ設定用!O16,"")</f>
+        <v/>
+      </c>
+      <c r="E16" s="38" t="str">
+        <f>IF(LEN(データ設定用!M16)&gt;0,データ設定用!M16,"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="38" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R11/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R11/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G16" s="40" t="str">
+      <c r="G16" s="38" t="str">
         <f>IF(OR(MAX($F16:F17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H16" s="40" t="str">
+      <c r="H16" s="38" t="str">
         <f>IF(OR(MAX($F16:G17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I16" s="40" t="str">
+      <c r="I16" s="38" t="str">
         <f>IF(OR(MAX($F16:H17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J16" s="40" t="str">
+      <c r="J16" s="38" t="str">
         <f>IF(OR(MAX($F16:I17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K16" s="40" t="str">
+      <c r="K16" s="38" t="str">
         <f>IF(OR(MAX($F16:J17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L16" s="40" t="str">
+      <c r="L16" s="38" t="str">
         <f>IF(OR(MAX($F16:K17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M16" s="40">
-        <f>MOD(データ設定用!$R11,10)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <f>データ設定用!S11</f>
-        <v>0</v>
+      <c r="M16" s="38" t="str">
+        <f>IF(LEN(データ設定用!$R11)&gt;0,MOD(データ設定用!$R11,10),"")</f>
+        <v/>
+      </c>
+      <c r="N16" s="44" t="str">
+        <f>IF(LEN(データ設定用!S11)&gt;0,データ設定用!S11,"")</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="3:14" ht="19.95" customHeight="1">
       <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="30">
-        <f>データ設定用!I11</f>
-        <v>0</v>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="44" t="str">
+        <f>IF(LEN(データ設定用!I11)&gt;0,データ設定用!I11,"")</f>
+        <v/>
       </c>
     </row>
     <row r="18" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C18" s="39">
-        <f>データ設定用!K12</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="40">
-        <f>データ設定用!O12</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="40">
-        <f>データ設定用!M12</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="40" t="str">
+      <c r="C18" s="39" t="str">
+        <f>IF(LEN(データ設定用!K18)&gt;0,データ設定用!K18,"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="38" t="str">
+        <f>IF(LEN(データ設定用!O18)&gt;0,データ設定用!O18,"")</f>
+        <v/>
+      </c>
+      <c r="E18" s="38" t="str">
+        <f>IF(LEN(データ設定用!M18)&gt;0,データ設定用!M18,"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="38" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R12/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R12/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G18" s="40" t="str">
+      <c r="G18" s="38" t="str">
         <f>IF(OR(MAX($F18:F19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H18" s="40" t="str">
+      <c r="H18" s="38" t="str">
         <f>IF(OR(MAX($F18:G19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I18" s="40" t="str">
+      <c r="I18" s="38" t="str">
         <f>IF(OR(MAX($F18:H19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J18" s="40" t="str">
+      <c r="J18" s="38" t="str">
         <f>IF(OR(MAX($F18:I19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K18" s="40" t="str">
+      <c r="K18" s="38" t="str">
         <f>IF(OR(MAX($F18:J19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L18" s="40" t="str">
+      <c r="L18" s="38" t="str">
         <f>IF(OR(MAX($F18:K19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M18" s="40">
-        <f>MOD(データ設定用!$R12,10)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <f>データ設定用!S12</f>
-        <v>0</v>
+      <c r="M18" s="38" t="str">
+        <f>IF(LEN(データ設定用!$R12)&gt;0,MOD(データ設定用!$R12,10),"")</f>
+        <v/>
+      </c>
+      <c r="N18" s="44" t="str">
+        <f>IF(LEN(データ設定用!S12)&gt;0,データ設定用!S12,"")</f>
+        <v/>
       </c>
     </row>
     <row r="19" spans="3:14" ht="19.95" customHeight="1">
       <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="30">
-        <f>データ設定用!I12</f>
-        <v>0</v>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="44" t="str">
+        <f>IF(LEN(データ設定用!I12)&gt;0,データ設定用!I12,"")</f>
+        <v/>
       </c>
     </row>
     <row r="20" spans="3:14" ht="39" customHeight="1">
       <c r="C20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="48" t="str">
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$V$3/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$V$3/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G20" s="48" t="str">
+      <c r="G20" s="34" t="str">
         <f>IF(OR(MAX(F20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H20" s="48" t="str">
+      <c r="H20" s="34" t="str">
         <f>IF(OR(MAX(F20:G20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I20" s="48" t="str">
+      <c r="I20" s="34" t="str">
         <f>IF(OR(MAX(F20:H20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J20" s="48" t="str">
+      <c r="J20" s="34" t="str">
         <f>IF(OR(MAX(F20:I20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K20" s="48" t="str">
+      <c r="K20" s="34" t="str">
         <f>IF(OR(MAX(F20:J20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L20" s="48" t="str">
+      <c r="L20" s="34" t="str">
         <f>IF(OR(MAX(F20:K20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M20" s="48">
+      <c r="M20" s="34">
         <f>MOD(データ設定用!V$3,10)</f>
         <v>0</v>
       </c>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="3:14" ht="39.450000000000003" customHeight="1">
-      <c r="C21" s="36">
+      <c r="C21" s="31">
         <f>IF(データ設定用!AI3&lt;&gt;0,
 CONCATENATE("消費税(",データ設定用!AA3*100,"%)","　",TEXT(データ設定用!AI3,"0"),CHAR(10),データ設定用!AE3),
 データ設定用!AE3)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="48" t="str">
+      <c r="E21" s="37"/>
+      <c r="F21" s="34" t="str">
         <f>IF(MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000000,0),10) &gt; 0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G21" s="48" t="str">
+      <c r="G21" s="34" t="str">
         <f>IF(OR(MAX(F21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H21" s="48" t="str">
+      <c r="H21" s="34" t="str">
         <f>IF(OR(MAX(F21:G21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I21" s="48" t="str">
+      <c r="I21" s="34" t="str">
         <f>IF(OR(MAX(F21:H21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J21" s="48" t="str">
+      <c r="J21" s="34" t="str">
         <f>IF(OR(MAX(F21:I21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K21" s="48" t="str">
+      <c r="K21" s="34" t="str">
         <f>IF(OR(MAX(F21:J21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L21" s="48" t="str">
+      <c r="L21" s="34" t="str">
         <f>IF(OR(MAX(F21:K21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M21" s="48">
+      <c r="M21" s="34">
         <f>MOD((データ設定用!$V$3+データ設定用!$AI$3),10)</f>
         <v>0</v>
       </c>
@@ -2293,27 +2285,75 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="27">
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="25">
         <f>データ設定用!D3</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
@@ -2330,62 +2370,14 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -2398,9 +2390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -2416,23 +2406,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.45" customHeight="1">
-      <c r="B2" s="44" t="str">
+      <c r="B2" s="40" t="str">
         <f>CONCATENATE(データ設定用!G3,"　",データ設定用!O3,"様")</f>
         <v>　様</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-    </row>
-    <row r="3" spans="1:11" ht="21">
-      <c r="B3" s="44" t="str">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:11" ht="21" customHeight="1">
+      <c r="B3" s="40" t="str">
         <f>CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様")</f>
         <v>　様</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:11" ht="9" customHeight="1">
       <c r="B4" s="8"/>
@@ -2445,12 +2442,12 @@
     <row r="5" spans="1:11" ht="30.45" customHeight="1" thickBot="1">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="7" spans="1:11" ht="20.7" customHeight="1">
       <c r="D7" s="10" t="s">
@@ -2466,11 +2463,11 @@
       <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="42">
         <v>43712</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="10.95" customHeight="1">
       <c r="D10" s="12"/>
@@ -2513,35 +2510,34 @@
       <c r="A12" s="15">
         <v>1</v>
       </c>
-      <c r="B12" s="32">
-        <f>データ設定用!E6</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="20">
-        <f>データ設定用!H6</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="20">
-        <f>データ設定用!K6</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="20">
-        <f>データ設定用!O6</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="20">
-        <f>データ設定用!Q6</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="33" t="str">
-        <f>CONCATENATE(データ設定用!S6,CHAR(10),データ設定用!$Z$3)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="I12" s="21">
-        <f>データ設定用!$R$3</f>
-        <v>0</v>
+      <c r="B12" s="45" t="str">
+        <f>IF(LEN(データ設定用!E6)&gt;0,データ設定用!E6,"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="46" t="str">
+        <f>IF(LEN(データ設定用!H6)&gt;0,データ設定用!H6,"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="46" t="str">
+        <f>IF(LEN(データ設定用!K6)&gt;0,データ設定用!K6,"")</f>
+        <v/>
+      </c>
+      <c r="E12" s="46" t="str">
+        <f>IF(LEN(データ設定用!O6)&gt;0,データ設定用!O6,"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="46" t="str">
+        <f>IF(LEN(データ設定用!Q6)&gt;0,データ設定用!Q6,"")</f>
+        <v/>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47" t="str">
+        <f>IF(LEN(データ設定用!S6)&gt;0,CONCATENATE(データ設定用!S6,CHAR(10),データ設定用!$Z$3),"")</f>
+        <v/>
+      </c>
+      <c r="I12" s="48" t="str">
+        <f>IF(LEN(D12)&gt;0,データ設定用!$R$3,"")</f>
+        <v/>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="14"/>
@@ -2550,35 +2546,34 @@
       <c r="A13" s="15">
         <v>2</v>
       </c>
-      <c r="B13" s="32">
-        <f>データ設定用!E7</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="20">
-        <f>データ設定用!H7</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="20">
-        <f>データ設定用!K7</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <f>データ設定用!O7</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="20">
-        <f>データ設定用!Q7</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="33" t="str">
-        <f>CONCATENATE(データ設定用!S7,CHAR(10),データ設定用!$Z$3)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="I13" s="21">
-        <f>データ設定用!$R$3</f>
-        <v>0</v>
+      <c r="B13" s="45" t="str">
+        <f>IF(LEN(データ設定用!E7)&gt;0,データ設定用!E7,"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="46" t="str">
+        <f>IF(LEN(データ設定用!H7)&gt;0,データ設定用!H7,"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="46" t="str">
+        <f>IF(LEN(データ設定用!K7)&gt;0,データ設定用!K7,"")</f>
+        <v/>
+      </c>
+      <c r="E13" s="46" t="str">
+        <f>IF(LEN(データ設定用!O7)&gt;0,データ設定用!O7,"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="46" t="str">
+        <f>IF(LEN(データ設定用!Q7)&gt;0,データ設定用!Q7,"")</f>
+        <v/>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47" t="str">
+        <f>IF(LEN(データ設定用!S7)&gt;0,CONCATENATE(データ設定用!S7,CHAR(10),データ設定用!$Z$3),"")</f>
+        <v/>
+      </c>
+      <c r="I13" s="48" t="str">
+        <f>IF(LEN(D13)&gt;0,データ設定用!$R$3,"")</f>
+        <v/>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="14"/>
@@ -2587,35 +2582,34 @@
       <c r="A14" s="15">
         <v>3</v>
       </c>
-      <c r="B14" s="32">
-        <f>データ設定用!E8</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="20">
-        <f>データ設定用!H8</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="20">
-        <f>データ設定用!K8</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="20">
-        <f>データ設定用!O8</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="20">
-        <f>データ設定用!Q8</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="33" t="str">
-        <f>CONCATENATE(データ設定用!S8,CHAR(10),データ設定用!$Z$3)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="I14" s="21">
-        <f>データ設定用!$R$3</f>
-        <v>0</v>
+      <c r="B14" s="45" t="str">
+        <f>IF(LEN(データ設定用!E8)&gt;0,データ設定用!E8,"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="46" t="str">
+        <f>IF(LEN(データ設定用!H8)&gt;0,データ設定用!H8,"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="46" t="str">
+        <f>IF(LEN(データ設定用!K8)&gt;0,データ設定用!K8,"")</f>
+        <v/>
+      </c>
+      <c r="E14" s="46" t="str">
+        <f>IF(LEN(データ設定用!O8)&gt;0,データ設定用!O8,"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="46" t="str">
+        <f>IF(LEN(データ設定用!Q8)&gt;0,データ設定用!Q8,"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47" t="str">
+        <f>IF(LEN(データ設定用!S8)&gt;0,CONCATENATE(データ設定用!S8,CHAR(10),データ設定用!$Z$3),"")</f>
+        <v/>
+      </c>
+      <c r="I14" s="48" t="str">
+        <f>IF(LEN(D14)&gt;0,データ設定用!$R$3,"")</f>
+        <v/>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="14"/>
@@ -2624,35 +2618,34 @@
       <c r="A15" s="15">
         <v>4</v>
       </c>
-      <c r="B15" s="32">
-        <f>データ設定用!E9</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="20">
-        <f>データ設定用!H9</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="20">
-        <f>データ設定用!K9</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="20">
-        <f>データ設定用!O9</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="20">
-        <f>データ設定用!Q9</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="33" t="str">
-        <f>CONCATENATE(データ設定用!S9,CHAR(10),データ設定用!$Z$3)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="I15" s="21">
-        <f>データ設定用!$R$3</f>
-        <v>0</v>
+      <c r="B15" s="45" t="str">
+        <f>IF(LEN(データ設定用!E9)&gt;0,データ設定用!E9,"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="46" t="str">
+        <f>IF(LEN(データ設定用!H9)&gt;0,データ設定用!H9,"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="46" t="str">
+        <f>IF(LEN(データ設定用!K9)&gt;0,データ設定用!K9,"")</f>
+        <v/>
+      </c>
+      <c r="E15" s="46" t="str">
+        <f>IF(LEN(データ設定用!O9)&gt;0,データ設定用!O9,"")</f>
+        <v/>
+      </c>
+      <c r="F15" s="46" t="str">
+        <f>IF(LEN(データ設定用!Q9)&gt;0,データ設定用!Q9,"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47" t="str">
+        <f>IF(LEN(データ設定用!S9)&gt;0,CONCATENATE(データ設定用!S9,CHAR(10),データ設定用!$Z$3),"")</f>
+        <v/>
+      </c>
+      <c r="I15" s="48" t="str">
+        <f>IF(LEN(D15)&gt;0,データ設定用!$R$3,"")</f>
+        <v/>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="14"/>
@@ -2661,35 +2654,34 @@
       <c r="A16" s="15">
         <v>5</v>
       </c>
-      <c r="B16" s="32">
-        <f>データ設定用!E10</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="20">
-        <f>データ設定用!H10</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="20">
-        <f>データ設定用!K10</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="20">
-        <f>データ設定用!O10</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="20">
-        <f>データ設定用!Q10</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="33" t="str">
-        <f>CONCATENATE(データ設定用!S10,CHAR(10),データ設定用!$Z$3)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="I16" s="21">
-        <f>データ設定用!$R$3</f>
-        <v>0</v>
+      <c r="B16" s="45" t="str">
+        <f>IF(LEN(データ設定用!E10)&gt;0,データ設定用!E10,"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="46" t="str">
+        <f>IF(LEN(データ設定用!H10)&gt;0,データ設定用!H10,"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="46" t="str">
+        <f>IF(LEN(データ設定用!K10)&gt;0,データ設定用!K10,"")</f>
+        <v/>
+      </c>
+      <c r="E16" s="46" t="str">
+        <f>IF(LEN(データ設定用!O10)&gt;0,データ設定用!O10,"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="46" t="str">
+        <f>IF(LEN(データ設定用!Q10)&gt;0,データ設定用!Q10,"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47" t="str">
+        <f>IF(LEN(データ設定用!S10)&gt;0,CONCATENATE(データ設定用!S10,CHAR(10),データ設定用!$Z$3),"")</f>
+        <v/>
+      </c>
+      <c r="I16" s="48" t="str">
+        <f>IF(LEN(D16)&gt;0,データ設定用!$R$3,"")</f>
+        <v/>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="14"/>
@@ -2698,93 +2690,92 @@
       <c r="A17" s="15">
         <v>6</v>
       </c>
-      <c r="B17" s="32">
-        <f>データ設定用!E11</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="20">
-        <f>データ設定用!H11</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="20">
-        <f>データ設定用!K11</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="20">
-        <f>データ設定用!O11</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="20">
-        <f>データ設定用!Q11</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="33" t="str">
-        <f>CONCATENATE(データ設定用!S11,CHAR(10),データ設定用!$Z$3)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="I17" s="21">
-        <f>データ設定用!$R$3</f>
-        <v>0</v>
+      <c r="B17" s="45" t="str">
+        <f>IF(LEN(データ設定用!E11)&gt;0,データ設定用!E11,"")</f>
+        <v/>
+      </c>
+      <c r="C17" s="46" t="str">
+        <f>IF(LEN(データ設定用!H11)&gt;0,データ設定用!H11,"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="46" t="str">
+        <f>IF(LEN(データ設定用!K11)&gt;0,データ設定用!K11,"")</f>
+        <v/>
+      </c>
+      <c r="E17" s="46" t="str">
+        <f>IF(LEN(データ設定用!O11)&gt;0,データ設定用!O11,"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="46" t="str">
+        <f>IF(LEN(データ設定用!Q11)&gt;0,データ設定用!Q11,"")</f>
+        <v/>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47" t="str">
+        <f>IF(LEN(データ設定用!S11)&gt;0,CONCATENATE(データ設定用!S11,CHAR(10),データ設定用!$Z$3),"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="48" t="str">
+        <f>IF(LEN(D17)&gt;0,データ設定用!$R$3,"")</f>
+        <v/>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" ht="13.95" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" ht="27" customHeight="1">
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="23" t="s">
+      <c r="H19" s="43"/>
+      <c r="I19" s="21" t="s">
         <v>21</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="23" t="s">
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="23" t="s">
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="G22" s="24"/>
-      <c r="H22" s="25" t="s">
+      <c r="G22" s="22"/>
+      <c r="H22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="21" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2829,7 +2820,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
-      <c r="A1" s="26"/>
+      <c r="A1" s="24"/>
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -2851,22 +2842,22 @@
       <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="29" t="s">
         <v>116</v>
       </c>
       <c r="O1" t="s">
@@ -2920,7 +2911,7 @@
       <c r="AE1" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AF1" s="29" t="s">
         <v>127</v>
       </c>
       <c r="AI1" t="s">
@@ -2952,22 +2943,22 @@
       <c r="H2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="29" t="s">
         <v>118</v>
       </c>
       <c r="O2" t="s">
@@ -3021,34 +3012,34 @@
       <c r="AE2" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" s="34" t="s">
+      <c r="AF2" s="29" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:36">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31" t="s">
+      <c r="D3" s="25"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="28"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="26"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="27"/>
       <c r="AI3">
         <f>ROUNDDOWN(IF(Y3&lt;&gt;1,0,IF(Y3=1,V3*AA3,V3/(1+AA3)*AA3)),0)</f>
         <v>0</v>
@@ -3171,95 +3162,95 @@
       </c>
     </row>
     <row r="6" spans="1:36">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="S6" s="26"/>
+      <c r="E6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="S6" s="24"/>
     </row>
     <row r="7" spans="1:36">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="S7" s="26"/>
+      <c r="E7" s="25"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="S7" s="24"/>
     </row>
     <row r="8" spans="1:36">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="S8" s="26"/>
+      <c r="E8" s="25"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="S8" s="24"/>
     </row>
     <row r="9" spans="1:36">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="S9" s="26"/>
+      <c r="E9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:36">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="S10" s="26"/>
+      <c r="E10" s="25"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="S10" s="24"/>
     </row>
     <row r="11" spans="1:36">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="S11" s="26"/>
+      <c r="E11" s="25"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="S11" s="24"/>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="S12" s="26"/>
+      <c r="E12" s="25"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="S12" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
